--- a/MetaData.xlsx
+++ b/MetaData.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOHAMMED\ETL-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1DABootCamp\Homework\ETL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0657E25C-056B-4581-BD7C-360322D0E25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="2760" yWindow="660" windowWidth="26205" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve"> In a heated contest to win the ball between players which player or team wins the ball. </t>
   </si>
@@ -32,24 +43,9 @@
     <t>Which team wins the ball and clears the area at the centre bounce or ball up or stoppages where a ball up or a throw in when the ball goes out of bounds</t>
   </si>
   <si>
-    <t xml:space="preserve"> When a team recaptures the ball from the other team and has possesion.</t>
-  </si>
-  <si>
     <t>How many times a team takes the ball within 50m of their goal.</t>
   </si>
   <si>
-    <t>Clearances</t>
-  </si>
-  <si>
-    <t>Rebounds</t>
-  </si>
-  <si>
-    <t>Inside 50's</t>
-  </si>
-  <si>
-    <t>Contested Possessions</t>
-  </si>
-  <si>
     <t>game_id</t>
   </si>
   <si>
@@ -59,9 +55,6 @@
     <t>round</t>
   </si>
   <si>
-    <t>week number into playing season</t>
-  </si>
-  <si>
     <t>the year the game was played</t>
   </si>
   <si>
@@ -80,27 +73,12 @@
     <t>stadium_id</t>
   </si>
   <si>
-    <t>stadium id assigned by code</t>
-  </si>
-  <si>
     <t>attendance</t>
   </si>
   <si>
     <t>number of people at the game</t>
   </si>
   <si>
-    <t>home_team_name</t>
-  </si>
-  <si>
-    <t>team hosting the game</t>
-  </si>
-  <si>
-    <t>away_team_name</t>
-  </si>
-  <si>
-    <t>visiting team</t>
-  </si>
-  <si>
     <t xml:space="preserve">stadium_name </t>
   </si>
   <si>
@@ -152,26 +130,107 @@
     <t>second name of player</t>
   </si>
   <si>
-    <t>METADATA</t>
-  </si>
-  <si>
     <t>team_id</t>
   </si>
   <si>
-    <t>team id assigened by code</t>
-  </si>
-  <si>
     <t>city_id</t>
   </si>
   <si>
-    <t>city id assigned by code</t>
+    <t>tvs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week number into playing season. ie. R1 round 1, SF semi final </t>
+  </si>
+  <si>
+    <t>home_team_score</t>
+  </si>
+  <si>
+    <t>home_team_id</t>
+  </si>
+  <si>
+    <t>stadium identifier assigned by code</t>
+  </si>
+  <si>
+    <t>team identifier assigened by code</t>
+  </si>
+  <si>
+    <t>city identifier assigned by code</t>
+  </si>
+  <si>
+    <t>away_team_id</t>
+  </si>
+  <si>
+    <t>away_team_score</t>
+  </si>
+  <si>
+    <t>hosting team's score</t>
+  </si>
+  <si>
+    <t>visitting team's score</t>
+  </si>
+  <si>
+    <t>the hosting team's identifier</t>
+  </si>
+  <si>
+    <t>the visiting team's identifier</t>
+  </si>
+  <si>
+    <t>clearances</t>
+  </si>
+  <si>
+    <t>rebounds</t>
+  </si>
+  <si>
+    <t>inside 50's</t>
+  </si>
+  <si>
+    <t>When a team recaptures the ball from the other team and has possesion.</t>
+  </si>
+  <si>
+    <t>rain_fall</t>
+  </si>
+  <si>
+    <t>rain fall measurement when the game is played</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>end_year</t>
+  </si>
+  <si>
+    <t>active_ind</t>
+  </si>
+  <si>
+    <t>stadium first opens for game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stadium's last year in use.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if stadium last year is not current year, </t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>state of the city where the venue is</t>
+  </si>
+  <si>
+    <t>total vital statistics, current model is a sum of constested_possessions, clearances, rebounds and insides_50s</t>
+  </si>
+  <si>
+    <t>METADATA of AFL games</t>
+  </si>
+  <si>
+    <t>contested_possessions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +242,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,9 +274,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,148 +571,148 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -653,42 +720,106 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
